--- a/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningSetResetPowerReport.xlsx
+++ b/reports/vivado/LoopPipeliningSolution/power/LoopPipeliningSetResetPowerReport.xlsx
@@ -181,7 +181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="2">
-        <v>1.873316432465799E-5</v>
+        <v>1.2051522389810998E-5</v>
       </c>
       <c r="B2" t="s" s="4">
         <v>8</v>
@@ -207,7 +207,7 @@
     </row>
     <row r="3" outlineLevel="1">
       <c r="A3" t="n" s="5">
-        <v>1.5622066712239757E-5</v>
+        <v>9.512608812656254E-6</v>
       </c>
       <c r="B3" t="s" s="4">
         <v>10</v>
@@ -222,7 +222,7 @@
         <v>32.0</v>
       </c>
       <c r="F3" t="n" s="7">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="G3" t="s" s="4">
         <v>11</v>
@@ -233,7 +233,7 @@
     </row>
     <row r="4" outlineLevel="1">
       <c r="A4" t="n" s="5">
-        <v>3.1110980671655852E-6</v>
+        <v>1.978260797841358E-6</v>
       </c>
       <c r="B4" t="s" s="4">
         <v>13</v>
@@ -248,7 +248,7 @@
         <v>5.0</v>
       </c>
       <c r="F4" t="n" s="7">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G4" t="s" s="4">
         <v>11</v>
@@ -259,7 +259,7 @@
     </row>
     <row r="5" outlineLevel="1">
       <c r="A5" t="n" s="5">
-        <v>0.0</v>
+        <v>5.60652154035779E-7</v>
       </c>
       <c r="B5" t="s" s="4">
         <v>14</v>
@@ -271,10 +271,10 @@
         <v>10.8695650100708</v>
       </c>
       <c r="E5" t="n" s="7">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="F5" t="n" s="7">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G5" t="s" s="4">
         <v>11</v>
